--- a/reports/victory_rate_summary.xlsx
+++ b/reports/victory_rate_summary.xlsx
@@ -21773,13 +21773,13 @@
         </is>
       </c>
       <c r="D409" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E409" s="5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F409" s="6" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G409" s="7" t="n">
         <v>3</v>
@@ -30457,13 +30457,13 @@
         </is>
       </c>
       <c r="D576" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E576" s="5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F576" s="6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G576" s="7" t="n">
         <v>4</v>
@@ -30478,22 +30478,22 @@
         <v>7</v>
       </c>
       <c r="K576" s="9" t="n">
-        <v>0.4877744831879156</v>
+        <v>0.4878012094975231</v>
       </c>
       <c r="L576" s="3" t="n">
-        <v>0.5024529083087459</v>
+        <v>0.5024796346183535</v>
       </c>
       <c r="M576" s="3" t="n">
-        <v>0.009772608503334</v>
+        <v>0.009719155884118799</v>
       </c>
       <c r="N576" s="10" t="n">
-        <v>0.4925883563478034</v>
+        <v>0.4925887564078148</v>
       </c>
       <c r="O576" s="11" t="n">
-        <v>0.5074116436521919</v>
+        <v>0.5074112435921805</v>
       </c>
       <c r="P576" s="3" t="n">
-        <v>0.0001098649232542</v>
+        <v>0.0001098530631653</v>
       </c>
     </row>
     <row r="577">

--- a/reports/victory_rate_summary.xlsx
+++ b/reports/victory_rate_summary.xlsx
@@ -511,7 +511,7 @@
     <col width="16.55" customWidth="1" min="13" max="13"/>
     <col width="13.91" customWidth="1" min="14" max="14"/>
     <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="11.91" customWidth="1" min="16" max="16"/>
+    <col width="8.5" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2358,7 +2358,7 @@
         <v>0.5027894031003947</v>
       </c>
       <c r="O35" s="11" t="n">
-        <v>0.4972105968995945</v>
+        <v>0.4972105968995946</v>
       </c>
       <c r="P35" s="3" t="n">
         <v>1.556153931304277e-05</v>
@@ -2511,7 +2511,7 @@
         <v>0.00050625</v>
       </c>
       <c r="N38" s="10" t="n">
-        <v>0.4900659124056546</v>
+        <v>0.4900659124056547</v>
       </c>
       <c r="O38" s="11" t="n">
         <v>0.5099340875943417</v>
@@ -2826,7 +2826,7 @@
         <v>0.5099999999999999</v>
       </c>
       <c r="O44" s="11" t="n">
-        <v>0.4899999999999997</v>
+        <v>0.4899999999999998</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>0.0002</v>
@@ -2878,7 +2878,7 @@
         <v>0.5010986557276448</v>
       </c>
       <c r="O45" s="11" t="n">
-        <v>0.4989013442721859</v>
+        <v>0.498901344272186</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>2.414088816145272e-06</v>
@@ -3469,10 +3469,10 @@
         </is>
       </c>
       <c r="D57" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F57" s="6" t="n">
         <v>14</v>
@@ -3554,7 +3554,7 @@
         <v>0.51</v>
       </c>
       <c r="O58" s="11" t="n">
-        <v>0.4899999999999997</v>
+        <v>0.4899999999999998</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>0.0002</v>
@@ -3658,7 +3658,7 @@
         <v>0.5099999999999999</v>
       </c>
       <c r="O60" s="11" t="n">
-        <v>0.4899999999999997</v>
+        <v>0.4899999999999998</v>
       </c>
       <c r="P60" s="3" t="n">
         <v>0.0002</v>
@@ -3866,7 +3866,7 @@
         <v>0.5199999999999999</v>
       </c>
       <c r="O64" s="11" t="n">
-        <v>0.4799999999999998</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="P64" s="3" t="n">
         <v>0.0008</v>
@@ -3970,7 +3970,7 @@
         <v>0.51733100990099</v>
       </c>
       <c r="O66" s="11" t="n">
-        <v>0.4826689900990097</v>
+        <v>0.4826689900990098</v>
       </c>
       <c r="P66" s="3" t="n">
         <v>0.0006007278083764</v>
@@ -4022,7 +4022,7 @@
         <v>0.5041456899671005</v>
       </c>
       <c r="O67" s="11" t="n">
-        <v>0.4958543100328988</v>
+        <v>0.4958543100328989</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>3.437349060664086e-05</v>
@@ -5114,7 +5114,7 @@
         <v>0.52</v>
       </c>
       <c r="O88" s="11" t="n">
-        <v>0.4799999999999997</v>
+        <v>0.4799999999999998</v>
       </c>
       <c r="P88" s="3" t="n">
         <v>0.0008</v>
@@ -5998,7 +5998,7 @@
         <v>0.5008027394439999</v>
       </c>
       <c r="O105" s="11" t="n">
-        <v>0.4991972605559909</v>
+        <v>0.499197260555991</v>
       </c>
       <c r="P105" s="3" t="n">
         <v>1.288781229921208e-06</v>
@@ -6173,10 +6173,10 @@
         </is>
       </c>
       <c r="D109" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F109" s="6" t="n">
         <v>7</v>
@@ -6255,7 +6255,7 @@
         <v>0.008303765625000001</v>
       </c>
       <c r="N110" s="10" t="n">
-        <v>0.4944869278591935</v>
+        <v>0.4944869278591936</v>
       </c>
       <c r="O110" s="11" t="n">
         <v>0.5055130721408045</v>
@@ -6723,7 +6723,7 @@
         <v>0.0809803927480206</v>
       </c>
       <c r="N119" s="10" t="n">
-        <v>0.4976395970280148</v>
+        <v>0.4976395970280149</v>
       </c>
       <c r="O119" s="11" t="n">
         <v>0.5023604029719593</v>
@@ -7919,7 +7919,7 @@
         <v>0.015625</v>
       </c>
       <c r="N142" s="10" t="n">
-        <v>0.4941051428571428</v>
+        <v>0.4941051428571429</v>
       </c>
       <c r="O142" s="11" t="n">
         <v>0.505894857142851</v>
@@ -7993,13 +7993,13 @@
         </is>
       </c>
       <c r="D144" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E144" s="5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F144" s="6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G144" s="7" t="n">
         <v>2</v>
@@ -8182,7 +8182,7 @@
         <v>0.5028384276561707</v>
       </c>
       <c r="O147" s="11" t="n">
-        <v>0.4971615723438188</v>
+        <v>0.4971615723438189</v>
       </c>
       <c r="P147" s="3" t="n">
         <v>1.611334311868869e-05</v>
@@ -8702,7 +8702,7 @@
         <v>0.5102645645515219</v>
       </c>
       <c r="O157" s="11" t="n">
-        <v>0.4897354354484753</v>
+        <v>0.4897354354484754</v>
       </c>
       <c r="P157" s="3" t="n">
         <v>0.0002107225708647</v>
@@ -8806,7 +8806,7 @@
         <v>0.5076478075149401</v>
       </c>
       <c r="O159" s="11" t="n">
-        <v>0.4923521924850387</v>
+        <v>0.4923521924850388</v>
       </c>
       <c r="P159" s="3" t="n">
         <v>0.0001169779195714</v>
@@ -9118,7 +9118,7 @@
         <v>0.5053685595240037</v>
       </c>
       <c r="O165" s="11" t="n">
-        <v>0.4946314404758737</v>
+        <v>0.4946314404758738</v>
       </c>
       <c r="P165" s="3" t="n">
         <v>5.764286272685763e-05</v>
@@ -9293,13 +9293,13 @@
         </is>
       </c>
       <c r="D169" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E169" s="5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F169" s="6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G169" s="7" t="n">
         <v>2</v>
@@ -9430,7 +9430,7 @@
         <v>0.5054519410970975</v>
       </c>
       <c r="O171" s="11" t="n">
-        <v>0.4945480589029002</v>
+        <v>0.4945480589029003</v>
       </c>
       <c r="P171" s="3" t="n">
         <v>5.944732345246526e-05</v>
@@ -9638,7 +9638,7 @@
         <v>0.5006715038432948</v>
       </c>
       <c r="O175" s="11" t="n">
-        <v>0.4993284961566925</v>
+        <v>0.4993284961566926</v>
       </c>
       <c r="P175" s="3" t="n">
         <v>9.018348231364068e-07</v>
@@ -9898,7 +9898,7 @@
         <v>0.5062555289784282</v>
       </c>
       <c r="O180" s="11" t="n">
-        <v>0.493744471021553</v>
+        <v>0.4937444710215531</v>
       </c>
       <c r="P180" s="3" t="n">
         <v>7.826328560014421e-05</v>
@@ -9950,7 +9950,7 @@
         <v>0.5024282977429821</v>
       </c>
       <c r="O181" s="11" t="n">
-        <v>0.4975717022569966</v>
+        <v>0.4975717022569967</v>
       </c>
       <c r="P181" s="3" t="n">
         <v>1.179325985724733e-05</v>
@@ -10470,7 +10470,7 @@
         <v>0.51287793158368</v>
       </c>
       <c r="O191" s="11" t="n">
-        <v>0.48712206841631</v>
+        <v>0.4871220684163101</v>
       </c>
       <c r="P191" s="3" t="n">
         <v>0.0003316822437481</v>
@@ -10938,7 +10938,7 @@
         <v>0.5359742246626397</v>
       </c>
       <c r="O200" s="11" t="n">
-        <v>0.46402577533736</v>
+        <v>0.4640257753373601</v>
       </c>
       <c r="P200" s="3" t="n">
         <v>0.0025882896801561</v>
@@ -10990,7 +10990,7 @@
         <v>0.5065621968531571</v>
       </c>
       <c r="O201" s="11" t="n">
-        <v>0.4934378031468422</v>
+        <v>0.4934378031468423</v>
       </c>
       <c r="P201" s="3" t="n">
         <v>8.612485507917772e-05</v>
@@ -11250,7 +11250,7 @@
         <v>0.5282061469755034</v>
       </c>
       <c r="O206" s="11" t="n">
-        <v>0.4717938530244799</v>
+        <v>0.47179385302448</v>
       </c>
       <c r="P206" s="3" t="n">
         <v>0.0015911734544083</v>
@@ -11302,7 +11302,7 @@
         <v>0.504273889255722</v>
       </c>
       <c r="O207" s="11" t="n">
-        <v>0.4957261107442622</v>
+        <v>0.4957261107442623</v>
       </c>
       <c r="P207" s="3" t="n">
         <v>3.65322587404867e-05</v>
@@ -11458,7 +11458,7 @@
         <v>0.5195800118096584</v>
       </c>
       <c r="O210" s="11" t="n">
-        <v>0.4804199881903175</v>
+        <v>0.4804199881903176</v>
       </c>
       <c r="P210" s="3" t="n">
         <v>0.0007667537249336</v>
@@ -11822,7 +11822,7 @@
         <v>0.5045305323282809</v>
       </c>
       <c r="O217" s="11" t="n">
-        <v>0.4954694676717053</v>
+        <v>0.4954694676717054</v>
       </c>
       <c r="P217" s="3" t="n">
         <v>4.105144635532156e-05</v>
@@ -11926,7 +11926,7 @@
         <v>0.510781058926853</v>
       </c>
       <c r="O219" s="11" t="n">
-        <v>0.4892189410731238</v>
+        <v>0.4892189410731239</v>
       </c>
       <c r="P219" s="3" t="n">
         <v>0.000232462463169</v>
@@ -12027,7 +12027,7 @@
         <v>0.0216651043635185</v>
       </c>
       <c r="N221" s="10" t="n">
-        <v>0.4942169295059442</v>
+        <v>0.4942169295059443</v>
       </c>
       <c r="O221" s="11" t="n">
         <v>0.5057830704940445</v>
@@ -12550,7 +12550,7 @@
         <v>0.5076833051506531</v>
       </c>
       <c r="O231" s="11" t="n">
-        <v>0.4923166948493447</v>
+        <v>0.4923166948493448</v>
       </c>
       <c r="P231" s="3" t="n">
         <v>0.0001180663560761</v>
@@ -12602,7 +12602,7 @@
         <v>0.5345188571428556</v>
       </c>
       <c r="O232" s="11" t="n">
-        <v>0.4654811428571428</v>
+        <v>0.4654811428571429</v>
       </c>
       <c r="P232" s="3" t="n">
         <v>0.0023831029968978</v>
@@ -12654,7 +12654,7 @@
         <v>0.5060624051989481</v>
       </c>
       <c r="O233" s="11" t="n">
-        <v>0.4939375948010487</v>
+        <v>0.4939375948010488</v>
       </c>
       <c r="P233" s="3" t="n">
         <v>7.350551359250362e-05</v>
@@ -13070,7 +13070,7 @@
         <v>0.5034114832079771</v>
       </c>
       <c r="O241" s="11" t="n">
-        <v>0.4965885167920035</v>
+        <v>0.4965885167920036</v>
       </c>
       <c r="P241" s="3" t="n">
         <v>2.327643535675164e-05</v>
@@ -13330,7 +13330,7 @@
         <v>0.5196759551120534</v>
       </c>
       <c r="O246" s="11" t="n">
-        <v>0.4803240448879254</v>
+        <v>0.4803240448879255</v>
       </c>
       <c r="P246" s="3" t="n">
         <v>0.0007742864191439</v>
@@ -14003,7 +14003,7 @@
         <v>0.015322279208548</v>
       </c>
       <c r="N259" s="10" t="n">
-        <v>0.491994835670999</v>
+        <v>0.4919948356709991</v>
       </c>
       <c r="O259" s="11" t="n">
         <v>0.5080051643289764</v>
@@ -14263,7 +14263,7 @@
         <v>0.0046053665839843</v>
       </c>
       <c r="N264" s="10" t="n">
-        <v>0.4719270231094818</v>
+        <v>0.4719270231094819</v>
       </c>
       <c r="O264" s="11" t="n">
         <v>0.528072976890435</v>
@@ -14367,7 +14367,7 @@
         <v>0.0060466175999999</v>
       </c>
       <c r="N266" s="10" t="n">
-        <v>0.4723776561227701</v>
+        <v>0.4723776561227702</v>
       </c>
       <c r="O266" s="11" t="n">
         <v>0.5276223438771754</v>
@@ -14991,7 +14991,7 @@
         <v>7.59375e-05</v>
       </c>
       <c r="N278" s="10" t="n">
-        <v>0.4798578536227036</v>
+        <v>0.4798578536227037</v>
       </c>
       <c r="O278" s="11" t="n">
         <v>0.5201421463772868</v>
@@ -15016,10 +15016,10 @@
         <v>2</v>
       </c>
       <c r="E279" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F279" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G279" s="7" t="n">
         <v>3</v>
@@ -15043,7 +15043,7 @@
         <v>0.0145194743710242</v>
       </c>
       <c r="N279" s="10" t="n">
-        <v>0.490383554624639</v>
+        <v>0.4903835546246391</v>
       </c>
       <c r="O279" s="11" t="n">
         <v>0.5096164453753518</v>
@@ -15095,7 +15095,7 @@
         <v>0.00032</v>
       </c>
       <c r="N280" s="10" t="n">
-        <v>0.4891753366453257</v>
+        <v>0.4891753366453258</v>
       </c>
       <c r="O280" s="11" t="n">
         <v>0.5108246633546735</v>
@@ -15150,7 +15150,7 @@
         <v>0.5004933432498325</v>
       </c>
       <c r="O281" s="11" t="n">
-        <v>0.4995066567501581</v>
+        <v>0.4995066567501582</v>
       </c>
       <c r="P281" s="3" t="n">
         <v>4.867751243198321e-07</v>
@@ -16034,7 +16034,7 @@
         <v>0.5660647647149022</v>
       </c>
       <c r="O298" s="11" t="n">
-        <v>0.4339352352850711</v>
+        <v>0.4339352352850712</v>
       </c>
       <c r="P298" s="3" t="n">
         <v>0.0087291062736742</v>
@@ -16190,7 +16190,7 @@
         <v>0.5044065677021488</v>
       </c>
       <c r="O301" s="11" t="n">
-        <v>0.4955934322978261</v>
+        <v>0.4955934322978262</v>
       </c>
       <c r="P301" s="3" t="n">
         <v>3.883567782746227e-05</v>
@@ -16343,7 +16343,7 @@
         <v>3.125000000000001e-07</v>
       </c>
       <c r="N304" s="10" t="n">
-        <v>0.4787776061179978</v>
+        <v>0.4787776061179979</v>
       </c>
       <c r="O304" s="11" t="n">
         <v>0.521222393881997</v>
@@ -16395,7 +16395,7 @@
         <v>0.0069300733761124</v>
       </c>
       <c r="N305" s="10" t="n">
-        <v>0.4999691712474086</v>
+        <v>0.4999691712474085</v>
       </c>
       <c r="O305" s="11" t="n">
         <v>0.5000308287525648</v>
@@ -16710,7 +16710,7 @@
         <v>0.5036151046653655</v>
       </c>
       <c r="O311" s="11" t="n">
-        <v>0.4963848953346328</v>
+        <v>0.4963848953346329</v>
       </c>
       <c r="P311" s="3" t="n">
         <v>2.613796348310674e-05</v>
@@ -17019,7 +17019,7 @@
         <v>0.0414031328703018</v>
       </c>
       <c r="N317" s="10" t="n">
-        <v>0.4991840746121895</v>
+        <v>0.4991840746121896</v>
       </c>
       <c r="O317" s="11" t="n">
         <v>0.5008159253877127</v>
@@ -17282,7 +17282,7 @@
         <v>0.5044141176470377</v>
       </c>
       <c r="O322" s="11" t="n">
-        <v>0.4955858823529411</v>
+        <v>0.4955858823529412</v>
       </c>
       <c r="P322" s="3" t="n">
         <v>3.896886920396593e-05</v>
@@ -17331,7 +17331,7 @@
         <v>0.026328125</v>
       </c>
       <c r="N323" s="10" t="n">
-        <v>0.4937183663644356</v>
+        <v>0.4937183663644357</v>
       </c>
       <c r="O323" s="11" t="n">
         <v>0.5062816336355594</v>
@@ -17386,7 +17386,7 @@
         <v>0.5033896558839706</v>
       </c>
       <c r="O324" s="11" t="n">
-        <v>0.4966103441159605</v>
+        <v>0.4966103441159606</v>
       </c>
       <c r="P324" s="3" t="n">
         <v>2.297953402393943e-05</v>
@@ -17591,7 +17591,7 @@
         <v>0.075418890625</v>
       </c>
       <c r="N328" s="10" t="n">
-        <v>0.423248801978585</v>
+        <v>0.4232488019785851</v>
       </c>
       <c r="O328" s="11" t="n">
         <v>0.5767511980214146</v>
@@ -17646,7 +17646,7 @@
         <v>0.5076764719043153</v>
       </c>
       <c r="O329" s="11" t="n">
-        <v>0.4923235280956708</v>
+        <v>0.4923235280956709</v>
       </c>
       <c r="P329" s="3" t="n">
         <v>0.0001178564417956</v>
@@ -17698,7 +17698,7 @@
         <v>0.5728249321263724</v>
       </c>
       <c r="O330" s="11" t="n">
-        <v>0.4271750678736062</v>
+        <v>0.4271750678736063</v>
       </c>
       <c r="P330" s="3" t="n">
         <v>0.0106069414784246</v>
@@ -17903,7 +17903,7 @@
         <v>3.125000000000001e-07</v>
       </c>
       <c r="N334" s="10" t="n">
-        <v>0.4960557026874311</v>
+        <v>0.4960557026874312</v>
       </c>
       <c r="O334" s="11" t="n">
         <v>0.5039442973125676</v>
@@ -18010,7 +18010,7 @@
         <v>0.5040037374331744</v>
       </c>
       <c r="O336" s="11" t="n">
-        <v>0.4959962625668256</v>
+        <v>0.4959962625668257</v>
       </c>
       <c r="P336" s="3" t="n">
         <v>3.20598268676033e-05</v>
@@ -18059,7 +18059,7 @@
         <v>0.0062950906532836</v>
       </c>
       <c r="N337" s="10" t="n">
-        <v>0.4968360727198211</v>
+        <v>0.4968360727198212</v>
       </c>
       <c r="O337" s="11" t="n">
         <v>0.5031639272801675</v>
@@ -18322,7 +18322,7 @@
         <v>0.5114839891428533</v>
       </c>
       <c r="O342" s="11" t="n">
-        <v>0.4885160108571358</v>
+        <v>0.4885160108571359</v>
       </c>
       <c r="P342" s="3" t="n">
         <v>0.0002637640132665</v>
@@ -18998,7 +18998,7 @@
         <v>0.5118713519270128</v>
       </c>
       <c r="O355" s="11" t="n">
-        <v>0.4881286480729755</v>
+        <v>0.4881286480729756</v>
       </c>
       <c r="P355" s="3" t="n">
         <v>0.0002818579931502</v>
@@ -19050,7 +19050,7 @@
         <v>0.5193825522705346</v>
       </c>
       <c r="O356" s="11" t="n">
-        <v>0.480617447729406</v>
+        <v>0.4806174477294061</v>
       </c>
       <c r="P356" s="3" t="n">
         <v>0.0007513666650423</v>
@@ -20035,7 +20035,7 @@
         <v>0.0134332721338131</v>
       </c>
       <c r="N375" s="10" t="n">
-        <v>0.4938402751760219</v>
+        <v>0.493840275176022</v>
       </c>
       <c r="O375" s="11" t="n">
         <v>0.5061597248239301</v>
@@ -20139,7 +20139,7 @@
         <v>0.0210457573350396</v>
       </c>
       <c r="N377" s="10" t="n">
-        <v>0.4938096374156547</v>
+        <v>0.4938096374156548</v>
       </c>
       <c r="O377" s="11" t="n">
         <v>0.506190362584321</v>
@@ -20295,7 +20295,7 @@
         <v>0.0770217343869129</v>
       </c>
       <c r="N380" s="10" t="n">
-        <v>0.4934311431105109</v>
+        <v>0.493431143110511</v>
       </c>
       <c r="O380" s="11" t="n">
         <v>0.5065688568894577</v>
@@ -20350,7 +20350,7 @@
         <v>0.5020889361430162</v>
       </c>
       <c r="O381" s="11" t="n">
-        <v>0.4979110638569239</v>
+        <v>0.497911063856924</v>
       </c>
       <c r="P381" s="3" t="n">
         <v>8.727308419448768e-06</v>
@@ -20629,13 +20629,13 @@
         </is>
       </c>
       <c r="D387" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E387" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F387" s="6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G387" s="7" t="n">
         <v>2</v>
@@ -20659,7 +20659,7 @@
         <v>0.0799556935679983</v>
       </c>
       <c r="N387" s="10" t="n">
-        <v>0.5087238376147358</v>
+        <v>0.5087238376147357</v>
       </c>
       <c r="O387" s="11" t="n">
         <v>0.4912761623852525</v>
@@ -20711,7 +20711,7 @@
         <v>0.075418890625</v>
       </c>
       <c r="N388" s="10" t="n">
-        <v>0.4464892406089777</v>
+        <v>0.4464892406089778</v>
       </c>
       <c r="O388" s="11" t="n">
         <v>0.5535107593910219</v>
@@ -21283,7 +21283,7 @@
         <v>0.0054406041062323</v>
       </c>
       <c r="N399" s="10" t="n">
-        <v>0.4995601375622295</v>
+        <v>0.4995601375622294</v>
       </c>
       <c r="O399" s="11" t="n">
         <v>0.5004398624377511</v>
@@ -21338,7 +21338,7 @@
         <v>0.510802600766412</v>
       </c>
       <c r="O400" s="11" t="n">
-        <v>0.489197399233586</v>
+        <v>0.4891973992335861</v>
       </c>
       <c r="P400" s="3" t="n">
         <v>0.000233392366637</v>
@@ -21387,7 +21387,7 @@
         <v>0.0106161413488639</v>
       </c>
       <c r="N401" s="10" t="n">
-        <v>0.4985060611681868</v>
+        <v>0.4985060611681869</v>
       </c>
       <c r="O401" s="11" t="n">
         <v>0.501493938831809</v>
@@ -21595,7 +21595,7 @@
         <v>0.0183765237956121</v>
       </c>
       <c r="N405" s="10" t="n">
-        <v>0.4951468527801517</v>
+        <v>0.4951468527801516</v>
       </c>
       <c r="O405" s="11" t="n">
         <v>0.5048531472197842</v>
@@ -21650,7 +21650,7 @@
         <v>0.5150526222603397</v>
       </c>
       <c r="O406" s="11" t="n">
-        <v>0.4849473777396337</v>
+        <v>0.4849473777396338</v>
       </c>
       <c r="P406" s="3" t="n">
         <v>0.0004531628738257</v>
@@ -22011,7 +22011,7 @@
         <v>0.02939254003906</v>
       </c>
       <c r="N413" s="10" t="n">
-        <v>0.4956861846047476</v>
+        <v>0.4956861846047477</v>
       </c>
       <c r="O413" s="11" t="n">
         <v>0.5043138153952295</v>
@@ -22066,7 +22066,7 @@
         <v>0.5512129714910754</v>
       </c>
       <c r="O414" s="11" t="n">
-        <v>0.4487870285088512</v>
+        <v>0.4487870285088513</v>
       </c>
       <c r="P414" s="3" t="n">
         <v>0.0052455368978989</v>
@@ -22118,7 +22118,7 @@
         <v>0.5157688612343483</v>
       </c>
       <c r="O415" s="11" t="n">
-        <v>0.4842311387656405</v>
+        <v>0.4842311387656406</v>
       </c>
       <c r="P415" s="3" t="n">
         <v>0.0004973139692566</v>
@@ -22950,7 +22950,7 @@
         <v>0.5000703906096849</v>
       </c>
       <c r="O431" s="11" t="n">
-        <v>0.4999296093902934</v>
+        <v>0.4999296093902935</v>
       </c>
       <c r="P431" s="3" t="n">
         <v>9.909675866676533e-09</v>
@@ -23155,7 +23155,7 @@
         <v>0.0148935911936204</v>
       </c>
       <c r="N435" s="10" t="n">
-        <v>0.4961649240571052</v>
+        <v>0.4961649240571053</v>
       </c>
       <c r="O435" s="11" t="n">
         <v>0.5038350759428485</v>
@@ -23544,7 +23544,7 @@
         <v>3</v>
       </c>
       <c r="E443" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F443" s="6" t="n">
         <v>7</v>
@@ -24458,7 +24458,7 @@
         <v>0.5469806484324381</v>
       </c>
       <c r="O460" s="11" t="n">
-        <v>0.4530193515675574</v>
+        <v>0.4530193515675575</v>
       </c>
       <c r="P460" s="3" t="n">
         <v>0.0044143626542651</v>
@@ -24666,7 +24666,7 @@
         <v>0.5020520501320379</v>
       </c>
       <c r="O464" s="11" t="n">
-        <v>0.497947949867934</v>
+        <v>0.4979479498679341</v>
       </c>
       <c r="P464" s="3" t="n">
         <v>8.421819488908644e-06</v>
@@ -24715,7 +24715,7 @@
         <v>0.0156782678422448</v>
       </c>
       <c r="N465" s="10" t="n">
-        <v>0.4973873322271109</v>
+        <v>0.497387332227111</v>
       </c>
       <c r="O465" s="11" t="n">
         <v>0.5026126677728389</v>
@@ -24871,7 +24871,7 @@
         <v>0.0016384</v>
       </c>
       <c r="N468" s="10" t="n">
-        <v>0.4976886887476441</v>
+        <v>0.4976886887476442</v>
       </c>
       <c r="O468" s="11" t="n">
         <v>0.5023113112523558</v>
@@ -24978,7 +24978,7 @@
         <v>0.5048581710747907</v>
       </c>
       <c r="O470" s="11" t="n">
-        <v>0.4951418289251555</v>
+        <v>0.4951418289251556</v>
       </c>
       <c r="P470" s="3" t="n">
         <v>4.720365238438808e-05</v>
@@ -25703,7 +25703,7 @@
         <v>1.562500000000001e-08</v>
       </c>
       <c r="N484" s="10" t="n">
-        <v>0.4515199661830383</v>
+        <v>0.4515199661830384</v>
       </c>
       <c r="O484" s="11" t="n">
         <v>0.5484800338169532</v>
@@ -26018,7 +26018,7 @@
         <v>0.5137397002816901</v>
       </c>
       <c r="O490" s="11" t="n">
-        <v>0.4862602997183087</v>
+        <v>0.4862602997183088</v>
       </c>
       <c r="P490" s="3" t="n">
         <v>0.0003775587276613</v>
@@ -26119,7 +26119,7 @@
         <v>0.0256881616210885</v>
       </c>
       <c r="N492" s="10" t="n">
-        <v>0.4738362635159971</v>
+        <v>0.4738362635159972</v>
       </c>
       <c r="O492" s="11" t="n">
         <v>0.5261637364839813</v>
@@ -26847,7 +26847,7 @@
         <v>0.07776</v>
       </c>
       <c r="N506" s="10" t="n">
-        <v>0.4986687022900763</v>
+        <v>0.4986687022900764</v>
       </c>
       <c r="O506" s="11" t="n">
         <v>0.5013312977099225</v>
@@ -27263,7 +27263,7 @@
         <v>1.562500000000001e-08</v>
       </c>
       <c r="N514" s="10" t="n">
-        <v>0.4711490300545033</v>
+        <v>0.4711490300545034</v>
       </c>
       <c r="O514" s="11" t="n">
         <v>0.5288509699454901</v>
@@ -27493,10 +27493,10 @@
         </is>
       </c>
       <c r="D519" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E519" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F519" s="6" t="n">
         <v>11</v>
@@ -27887,7 +27887,7 @@
         <v>0.0361217712567312</v>
       </c>
       <c r="N526" s="10" t="n">
-        <v>0.4967134389240425</v>
+        <v>0.4967134389240426</v>
       </c>
       <c r="O526" s="11" t="n">
         <v>0.5032865610758784</v>
@@ -27939,7 +27939,7 @@
         <v>0.0265892263122669</v>
       </c>
       <c r="N527" s="10" t="n">
-        <v>0.4988668691245645</v>
+        <v>0.4988668691245646</v>
       </c>
       <c r="O527" s="11" t="n">
         <v>0.5011331308754023</v>
@@ -27991,7 +27991,7 @@
         <v>0.033289802481664</v>
       </c>
       <c r="N528" s="10" t="n">
-        <v>0.4936539038632594</v>
+        <v>0.4936539038632595</v>
       </c>
       <c r="O528" s="11" t="n">
         <v>0.5063460961366725</v>
@@ -28046,7 +28046,7 @@
         <v>0.5012942786753178</v>
       </c>
       <c r="O529" s="11" t="n">
-        <v>0.498705721324667</v>
+        <v>0.4987057213246671</v>
       </c>
       <c r="P529" s="3" t="n">
         <v>3.350314578804086e-06</v>
@@ -28462,7 +28462,7 @@
         <v>0.5071679588227715</v>
       </c>
       <c r="O537" s="11" t="n">
-        <v>0.4928320411772269</v>
+        <v>0.492832041177227</v>
       </c>
       <c r="P537" s="3" t="n">
         <v>0.0001027592673699</v>
@@ -28618,7 +28618,7 @@
         <v>0.5085754082664388</v>
       </c>
       <c r="O540" s="11" t="n">
-        <v>0.4914245917335278</v>
+        <v>0.4914245917335279</v>
       </c>
       <c r="P540" s="3" t="n">
         <v>0.0001470752538727</v>
@@ -29346,7 +29346,7 @@
         <v>0.5013568049477953</v>
       </c>
       <c r="O554" s="11" t="n">
-        <v>0.4986431950521562</v>
+        <v>0.4986431950521563</v>
       </c>
       <c r="P554" s="3" t="n">
         <v>3.681839332855138e-06</v>
@@ -29863,7 +29863,7 @@
         <v>0.07177499522875</v>
       </c>
       <c r="N564" s="10" t="n">
-        <v>0.4961137934798312</v>
+        <v>0.4961137934798313</v>
       </c>
       <c r="O564" s="11" t="n">
         <v>0.5038862065201675</v>
@@ -29918,7 +29918,7 @@
         <v>0.5235575294934071</v>
       </c>
       <c r="O565" s="11" t="n">
-        <v>0.476442470506591</v>
+        <v>0.4764424705065911</v>
       </c>
       <c r="P565" s="3" t="n">
         <v>0.0011099143916655</v>
@@ -30383,7 +30383,7 @@
         <v>0.0032148604543449</v>
       </c>
       <c r="N574" s="10" t="n">
-        <v>0.4973559733177384</v>
+        <v>0.4973559733177385</v>
       </c>
       <c r="O574" s="11" t="n">
         <v>0.5026440266822562</v>
@@ -30487,7 +30487,7 @@
         <v>0.009719155884118799</v>
       </c>
       <c r="N576" s="10" t="n">
-        <v>0.4925887564078148</v>
+        <v>0.4925887564078149</v>
       </c>
       <c r="O576" s="11" t="n">
         <v>0.5074112435921805</v>
@@ -30906,7 +30906,7 @@
         <v>0.5022074822779006</v>
       </c>
       <c r="O584" s="11" t="n">
-        <v>0.4977925177220962</v>
+        <v>0.4977925177220963</v>
       </c>
       <c r="P584" s="3" t="n">
         <v>9.745956014504186e-06</v>
@@ -31062,7 +31062,7 @@
         <v>0.509818226600985</v>
       </c>
       <c r="O587" s="11" t="n">
-        <v>0.4901817733990147</v>
+        <v>0.4901817733990148</v>
       </c>
       <c r="P587" s="3" t="n">
         <v>0.0001927951471765</v>
@@ -31240,40 +31240,40 @@
         <v>1</v>
       </c>
       <c r="E591" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F591" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G591" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H591" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I591" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J591" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K591" s="9" t="n">
-        <v>0.4998187499999994</v>
+        <v>0.4289911071632149</v>
       </c>
       <c r="L591" s="3" t="n">
-        <v>0.43768125</v>
+        <v>0.4864935182273373</v>
       </c>
       <c r="M591" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.084515374609375</v>
       </c>
       <c r="N591" s="10" t="n">
-        <v>0.5331399999999994</v>
+        <v>0.4685945511975913</v>
       </c>
       <c r="O591" s="11" t="n">
-        <v>0.46686</v>
+        <v>0.5314054488023292</v>
       </c>
       <c r="P591" s="3" t="n">
-        <v>0.0021965191999999</v>
+        <v>0.0019726044289564</v>
       </c>
     </row>
     <row r="592">
@@ -31423,7 +31423,7 @@
         <v>0.07345047924156151</v>
       </c>
       <c r="N594" s="10" t="n">
-        <v>0.4991297342642399</v>
+        <v>0.49912973426424</v>
       </c>
       <c r="O594" s="11" t="n">
         <v>0.500870265735756</v>
@@ -32102,7 +32102,7 @@
         <v>0.5020895522388057</v>
       </c>
       <c r="O607" s="11" t="n">
-        <v>0.4979104477611937</v>
+        <v>0.4979104477611938</v>
       </c>
       <c r="P607" s="3" t="n">
         <v>8.732457117398079e-06</v>
@@ -32154,7 +32154,7 @@
         <v>0.5115690456929819</v>
       </c>
       <c r="O608" s="11" t="n">
-        <v>0.4884309543070075</v>
+        <v>0.4884309543070076</v>
       </c>
       <c r="P608" s="3" t="n">
         <v>0.0002676856364928</v>
@@ -32310,7 +32310,7 @@
         <v>0.5033058348537465</v>
       </c>
       <c r="O611" s="11" t="n">
-        <v>0.4966941651462211</v>
+        <v>0.4966941651462212</v>
       </c>
       <c r="P611" s="3" t="n">
         <v>2.185708816070386e-05</v>
@@ -32466,7 +32466,7 @@
         <v>0.5043086061951154</v>
       </c>
       <c r="O614" s="11" t="n">
-        <v>0.4956913938048389</v>
+        <v>0.495691393804839</v>
       </c>
       <c r="P614" s="3" t="n">
         <v>3.712817468956709e-05</v>
@@ -32778,7 +32778,7 @@
         <v>0.5017069889147044</v>
       </c>
       <c r="O620" s="11" t="n">
-        <v>0.4982930110852472</v>
+        <v>0.4982930110852473</v>
       </c>
       <c r="P620" s="3" t="n">
         <v>5.827622310012587e-06</v>
@@ -32830,7 +32830,7 @@
         <v>0.5459999999999994</v>
       </c>
       <c r="O621" s="11" t="n">
-        <v>0.4539999999999999</v>
+        <v>0.454</v>
       </c>
       <c r="P621" s="3" t="n">
         <v>0.0042319999999999</v>
@@ -32882,7 +32882,7 @@
         <v>0.5007950512447679</v>
       </c>
       <c r="O622" s="11" t="n">
-        <v>0.4992049487551478</v>
+        <v>0.4992049487551479</v>
       </c>
       <c r="P622" s="3" t="n">
         <v>1.26421296374785e-06</v>
@@ -33087,7 +33087,7 @@
         <v>0.0753214463999983</v>
       </c>
       <c r="N626" s="10" t="n">
-        <v>0.4923055251878558</v>
+        <v>0.4923055251878559</v>
       </c>
       <c r="O626" s="11" t="n">
         <v>0.507694474812133</v>
@@ -33142,7 +33142,7 @@
         <v>0.5453427017312606</v>
       </c>
       <c r="O627" s="11" t="n">
-        <v>0.4546572982687378</v>
+        <v>0.4546572982687379</v>
       </c>
       <c r="P627" s="3" t="n">
         <v>0.0041119212005802</v>
@@ -33558,7 +33558,7 @@
         <v>0.5096648648648648</v>
       </c>
       <c r="O635" s="11" t="n">
-        <v>0.4903351351351351</v>
+        <v>0.4903351351351352</v>
       </c>
       <c r="P635" s="3" t="n">
         <v>0.0001868192257121</v>
@@ -33607,7 +33607,7 @@
         <v>0.0115002856905092</v>
       </c>
       <c r="N636" s="10" t="n">
-        <v>0.4964456138143884</v>
+        <v>0.4964456138143885</v>
       </c>
       <c r="O636" s="11" t="n">
         <v>0.503554386185603</v>
@@ -33867,7 +33867,7 @@
         <v>1.52587890625e-05</v>
       </c>
       <c r="N641" s="10" t="n">
-        <v>0.4822821866222623</v>
+        <v>0.4822821866222624</v>
       </c>
       <c r="O641" s="11" t="n">
         <v>0.5177178133776564</v>
@@ -34023,10 +34023,10 @@
         <v>0.0267795729942977</v>
       </c>
       <c r="N644" s="10" t="n">
-        <v>0.505007776251208</v>
+        <v>0.5050077762512079</v>
       </c>
       <c r="O644" s="11" t="n">
-        <v>0.4949922237487126</v>
+        <v>0.4949922237487125</v>
       </c>
       <c r="P644" s="3" t="n">
         <v>5.015564596512056e-05</v>
@@ -34286,7 +34286,7 @@
         <v>0.5471428274428275</v>
       </c>
       <c r="O649" s="11" t="n">
-        <v>0.4528571725571725</v>
+        <v>0.4528571725571726</v>
       </c>
       <c r="P649" s="3" t="n">
         <v>0.0044448923586084</v>
@@ -34338,7 +34338,7 @@
         <v>0.5027389024684717</v>
       </c>
       <c r="O650" s="11" t="n">
-        <v>0.4972610975314693</v>
+        <v>0.4972610975314694</v>
       </c>
       <c r="P650" s="3" t="n">
         <v>1.500317346392391e-05</v>
@@ -34494,7 +34494,7 @@
         <v>0.5487391780513583</v>
       </c>
       <c r="O653" s="11" t="n">
-        <v>0.4512608219486407</v>
+        <v>0.4512608219486408</v>
       </c>
       <c r="P653" s="3" t="n">
         <v>0.0047510149542441</v>
@@ -34647,7 +34647,7 @@
         <v>0.0770055413759983</v>
       </c>
       <c r="N656" s="10" t="n">
-        <v>0.4941519595567978</v>
+        <v>0.4941519595567979</v>
       </c>
       <c r="O656" s="11" t="n">
         <v>0.5058480404431913</v>
@@ -34702,7 +34702,7 @@
         <v>0.5583622013641264</v>
       </c>
       <c r="O657" s="11" t="n">
-        <v>0.4416377986358716</v>
+        <v>0.4416377986358717</v>
       </c>
       <c r="P657" s="3" t="n">
         <v>0.0068122930961339</v>
@@ -35375,7 +35375,7 @@
         <v>0.0142270071953875</v>
       </c>
       <c r="N670" s="10" t="n">
-        <v>0.4976858444116095</v>
+        <v>0.4976858444116096</v>
       </c>
       <c r="O670" s="11" t="n">
         <v>0.5023141555883736</v>
@@ -35479,7 +35479,7 @@
         <v>0.0122133909115234</v>
       </c>
       <c r="N672" s="10" t="n">
-        <v>0.4929902215399986</v>
+        <v>0.4929902215399987</v>
       </c>
       <c r="O672" s="11" t="n">
         <v>0.5070097784600014</v>
@@ -35635,7 +35635,7 @@
         <v>0.0002251875390624</v>
       </c>
       <c r="N675" s="10" t="n">
-        <v>0.4967877429791454</v>
+        <v>0.4967877429791455</v>
       </c>
       <c r="O675" s="11" t="n">
         <v>0.503212257020765</v>
@@ -35742,7 +35742,7 @@
         <v>0.5042191510869189</v>
       </c>
       <c r="O677" s="11" t="n">
-        <v>0.4957808489130272</v>
+        <v>0.4957808489130273</v>
       </c>
       <c r="P677" s="3" t="n">
         <v>3.560247178895259e-05</v>
@@ -35794,7 +35794,7 @@
         <v>0.5099472020851229</v>
       </c>
       <c r="O678" s="11" t="n">
-        <v>0.4900527979148636</v>
+        <v>0.4900527979148637</v>
       </c>
       <c r="P678" s="3" t="n">
         <v>0.0001978936586448</v>
@@ -36155,7 +36155,7 @@
         <v>0.0167961599999999</v>
       </c>
       <c r="N685" s="10" t="n">
-        <v>0.4356983116147215</v>
+        <v>0.4356983116147216</v>
       </c>
       <c r="O685" s="11" t="n">
         <v>0.5643016883852645</v>
@@ -36207,7 +36207,7 @@
         <v>0.0787135242239983</v>
       </c>
       <c r="N686" s="10" t="n">
-        <v>0.496008744236967</v>
+        <v>0.4960087442369671</v>
       </c>
       <c r="O686" s="11" t="n">
         <v>0.5039912557630223</v>
@@ -36259,7 +36259,7 @@
         <v>0.0207119128378906</v>
       </c>
       <c r="N687" s="10" t="n">
-        <v>0.4408325407173509</v>
+        <v>0.440832540717351</v>
       </c>
       <c r="O687" s="11" t="n">
         <v>0.559167459282648</v>
@@ -37094,7 +37094,7 @@
         <v>0.5391065789352305</v>
       </c>
       <c r="O703" s="11" t="n">
-        <v>0.4608934210647092</v>
+        <v>0.4608934210647093</v>
       </c>
       <c r="P703" s="3" t="n">
         <v>0.0030586490320395</v>
@@ -37354,7 +37354,7 @@
         <v>0.5119455033314029</v>
       </c>
       <c r="O708" s="11" t="n">
-        <v>0.4880544966685838</v>
+        <v>0.4880544966685839</v>
       </c>
       <c r="P708" s="3" t="n">
         <v>0.0002853900996814</v>
@@ -37611,7 +37611,7 @@
         <v>0.01522435234375</v>
       </c>
       <c r="N713" s="10" t="n">
-        <v>0.4504784703602483</v>
+        <v>0.4504784703602484</v>
       </c>
       <c r="O713" s="11" t="n">
         <v>0.549521529639745</v>
@@ -37767,7 +37767,7 @@
         <v>0.0804453949439983</v>
       </c>
       <c r="N716" s="10" t="n">
-        <v>0.4978761556381459</v>
+        <v>0.497876155638146</v>
       </c>
       <c r="O716" s="11" t="n">
         <v>0.5021238443618421</v>
@@ -38599,7 +38599,7 @@
         <v>0.0138654573343546</v>
       </c>
       <c r="N732" s="10" t="n">
-        <v>0.495740142828477</v>
+        <v>0.4957401428284771</v>
       </c>
       <c r="O732" s="11" t="n">
         <v>0.5042598571714897</v>
@@ -38777,10 +38777,10 @@
         </is>
       </c>
       <c r="D736" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E736" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F736" s="6" t="n">
         <v>15</v>
@@ -39018,7 +39018,7 @@
         <v>0.5040738680544357</v>
       </c>
       <c r="O740" s="11" t="n">
-        <v>0.4959261319455644</v>
+        <v>0.4959261319455645</v>
       </c>
       <c r="P740" s="3" t="n">
         <v>3.319280184990186e-05</v>
@@ -39954,7 +39954,7 @@
         <v>0.5062123696496541</v>
       </c>
       <c r="O758" s="11" t="n">
-        <v>0.4937876303503303</v>
+        <v>0.4937876303503304</v>
       </c>
       <c r="P758" s="3" t="n">
         <v>7.718707332808002e-05</v>
@@ -40835,7 +40835,7 @@
         <v>0.0167961599999999</v>
       </c>
       <c r="N775" s="10" t="n">
-        <v>0.481665816113981</v>
+        <v>0.4816658161139811</v>
       </c>
       <c r="O775" s="11" t="n">
         <v>0.5183341838860189</v>
@@ -40994,7 +40994,7 @@
         <v>0.5130029211701047</v>
       </c>
       <c r="O778" s="11" t="n">
-        <v>0.4869970788298828</v>
+        <v>0.4869970788298829</v>
       </c>
       <c r="P778" s="3" t="n">
         <v>0.0003381519179122</v>
@@ -41979,7 +41979,7 @@
         <v>0.01024</v>
       </c>
       <c r="N797" s="10" t="n">
-        <v>0.4961551270611051</v>
+        <v>0.4961551270611052</v>
       </c>
       <c r="O797" s="11" t="n">
         <v>0.5038448729388937</v>
@@ -42398,7 +42398,7 @@
         <v>0.628864399722415</v>
       </c>
       <c r="O805" s="11" t="n">
-        <v>0.3711356002775849</v>
+        <v>0.371135600277585</v>
       </c>
       <c r="P805" s="3" t="n">
         <v>0.0332120670316367</v>
@@ -42450,7 +42450,7 @@
         <v>0.5035449708899552</v>
       </c>
       <c r="O806" s="11" t="n">
-        <v>0.4964550291100444</v>
+        <v>0.4964550291100445</v>
       </c>
       <c r="P806" s="3" t="n">
         <v>2.51336372212619e-05</v>
@@ -42814,7 +42814,7 @@
         <v>0.5002887783188563</v>
       </c>
       <c r="O813" s="11" t="n">
-        <v>0.4997112216811188</v>
+        <v>0.4997112216811189</v>
       </c>
       <c r="P813" s="3" t="n">
         <v>1.667858348972958e-07</v>
@@ -43019,7 +43019,7 @@
         <v>0.00050625</v>
       </c>
       <c r="N817" s="10" t="n">
-        <v>0.4734394889975545</v>
+        <v>0.4734394889975546</v>
       </c>
       <c r="O817" s="11" t="n">
         <v>0.5265605110024436</v>
@@ -43071,7 +43071,7 @@
         <v>0.0391221194712872</v>
       </c>
       <c r="N818" s="10" t="n">
-        <v>0.4998121481081283</v>
+        <v>0.4998121481081284</v>
       </c>
       <c r="O818" s="11" t="n">
         <v>0.5001878518918659</v>
@@ -43123,7 +43123,7 @@
         <v>0.0016</v>
       </c>
       <c r="N819" s="10" t="n">
-        <v>0.4855501538461539</v>
+        <v>0.485550153846154</v>
       </c>
       <c r="O819" s="11" t="n">
         <v>0.5144498461538461</v>
@@ -43230,7 +43230,7 @@
         <v>0.5001621058823529</v>
       </c>
       <c r="O821" s="11" t="n">
-        <v>0.499837894117646</v>
+        <v>0.4998378941176461</v>
       </c>
       <c r="P821" s="3" t="n">
         <v>5.255663418715409e-08</v>
@@ -43282,7 +43282,7 @@
         <v>0.5007160749346629</v>
       </c>
       <c r="O822" s="11" t="n">
-        <v>0.499283925065292</v>
+        <v>0.4992839250652921</v>
       </c>
       <c r="P822" s="3" t="n">
         <v>1.025526624169387e-06</v>
@@ -43750,7 +43750,7 @@
         <v>0.5188553333333334</v>
       </c>
       <c r="O831" s="11" t="n">
-        <v>0.4811446666666645</v>
+        <v>0.4811446666666646</v>
       </c>
       <c r="P831" s="3" t="n">
         <v>0.0007110471902223</v>
@@ -44062,7 +44062,7 @@
         <v>0.518766579123086</v>
       </c>
       <c r="O837" s="11" t="n">
-        <v>0.4812334208769008</v>
+        <v>0.4812334208769009</v>
       </c>
       <c r="P837" s="3" t="n">
         <v>0.0007043689839665</v>
@@ -44218,7 +44218,7 @@
         <v>0.5023512813212282</v>
       </c>
       <c r="O840" s="11" t="n">
-        <v>0.4976487186787613</v>
+        <v>0.4976487186787614</v>
       </c>
       <c r="P840" s="3" t="n">
         <v>1.105704770316228e-05</v>
@@ -44790,7 +44790,7 @@
         <v>0.5647042206018797</v>
       </c>
       <c r="O851" s="11" t="n">
-        <v>0.4352957793980292</v>
+        <v>0.4352957793980293</v>
       </c>
       <c r="P851" s="3" t="n">
         <v>0.008373272327405199</v>
@@ -44894,7 +44894,7 @@
         <v>0.5009837704020748</v>
       </c>
       <c r="O853" s="11" t="n">
-        <v>0.4990162295979204</v>
+        <v>0.4990162295979205</v>
       </c>
       <c r="P853" s="3" t="n">
         <v>1.935608408006053e-06</v>
@@ -45102,7 +45102,7 @@
         <v>0.5294107390882637</v>
       </c>
       <c r="O857" s="11" t="n">
-        <v>0.4705892609117347</v>
+        <v>0.4705892609117348</v>
       </c>
       <c r="P857" s="3" t="n">
         <v>0.0017299831474359</v>
@@ -45570,7 +45570,7 @@
         <v>0.5073825551467919</v>
       </c>
       <c r="O866" s="11" t="n">
-        <v>0.4926174448532068</v>
+        <v>0.4926174448532069</v>
       </c>
       <c r="P866" s="3" t="n">
         <v>0.0001090042409908</v>
@@ -46246,7 +46246,7 @@
         <v>0.5208166153846155</v>
       </c>
       <c r="O879" s="11" t="n">
-        <v>0.4791833846153845</v>
+        <v>0.4791833846153846</v>
       </c>
       <c r="P879" s="3" t="n">
         <v>0.000866662952142</v>
@@ -46350,7 +46350,7 @@
         <v>0.5347677294117646</v>
       </c>
       <c r="O881" s="11" t="n">
-        <v>0.4652322705882338</v>
+        <v>0.4652322705882339</v>
       </c>
       <c r="P881" s="3" t="n">
         <v>0.0024175900168994</v>
@@ -46558,7 +46558,7 @@
         <v>0.5314649918688558</v>
       </c>
       <c r="O885" s="11" t="n">
-        <v>0.4685350081311429</v>
+        <v>0.468535008131143</v>
       </c>
       <c r="P885" s="3" t="n">
         <v>0.0019800914266143</v>
@@ -46580,10 +46580,10 @@
         <v>5</v>
       </c>
       <c r="E886" s="5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F886" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G886" s="7" t="n">
         <v>3</v>
@@ -46662,7 +46662,7 @@
         <v>0.6436257903860513</v>
       </c>
       <c r="O887" s="11" t="n">
-        <v>0.3563742096138427</v>
+        <v>0.3563742096138428</v>
       </c>
       <c r="P887" s="3" t="n">
         <v>0.0412567353280663</v>
@@ -46714,7 +46714,7 @@
         <v>0.5062710678313121</v>
       </c>
       <c r="O888" s="11" t="n">
-        <v>0.4937289321686617</v>
+        <v>0.4937289321686618</v>
       </c>
       <c r="P888" s="3" t="n">
         <v>7.865258349016335e-05</v>
@@ -46766,7 +46766,7 @@
         <v>0.5358638114470188</v>
       </c>
       <c r="O889" s="11" t="n">
-        <v>0.4641361885529801</v>
+        <v>0.4641361885529802</v>
       </c>
       <c r="P889" s="3" t="n">
         <v>0.0025724259430147</v>
@@ -46815,7 +46815,7 @@
         <v>0.0378729165054326</v>
       </c>
       <c r="N890" s="10" t="n">
-        <v>0.4945786554118287</v>
+        <v>0.4945786554118288</v>
       </c>
       <c r="O890" s="11" t="n">
         <v>0.5054213445881314</v>
@@ -46867,7 +46867,7 @@
         <v>0.00390625</v>
       </c>
       <c r="N891" s="10" t="n">
-        <v>0.450563200117647</v>
+        <v>0.4505632001176471</v>
       </c>
       <c r="O891" s="11" t="n">
         <v>0.5494367998823522</v>
@@ -47097,13 +47097,13 @@
         </is>
       </c>
       <c r="D896" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E896" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F896" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G896" s="7" t="n">
         <v>2</v>
@@ -47127,10 +47127,10 @@
         <v>0.09133826457599981</v>
       </c>
       <c r="N896" s="10" t="n">
-        <v>0.5093197481799183</v>
+        <v>0.5093197481799182</v>
       </c>
       <c r="O896" s="11" t="n">
-        <v>0.4906802518200802</v>
+        <v>0.4906802518200801</v>
       </c>
       <c r="P896" s="3" t="n">
         <v>0.0001737154122742</v>
@@ -47286,7 +47286,7 @@
         <v>0.561523246571636</v>
       </c>
       <c r="O899" s="11" t="n">
-        <v>0.4384767534283484</v>
+        <v>0.4384767534283485</v>
       </c>
       <c r="P899" s="3" t="n">
         <v>0.0075702197374305</v>
@@ -47338,7 +47338,7 @@
         <v>0.5049368241410901</v>
       </c>
       <c r="O900" s="11" t="n">
-        <v>0.4950631758588972</v>
+        <v>0.4950631758588973</v>
       </c>
       <c r="P900" s="3" t="n">
         <v>4.874446520022478e-05</v>
@@ -47751,7 +47751,7 @@
         <v>0.0143371386165993</v>
       </c>
       <c r="N908" s="10" t="n">
-        <v>0.4987288236913806</v>
+        <v>0.4987288236913807</v>
       </c>
       <c r="O908" s="11" t="n">
         <v>0.5012711763086111</v>
@@ -47806,7 +47806,7 @@
         <v>0.6554838709677421</v>
       </c>
       <c r="O909" s="11" t="n">
-        <v>0.3445161290322578</v>
+        <v>0.3445161290322579</v>
       </c>
       <c r="P909" s="3" t="n">
         <v>0.0483504682622269</v>
@@ -47910,7 +47910,7 @@
         <v>0.5526588235294118</v>
       </c>
       <c r="O911" s="11" t="n">
-        <v>0.4473411764705878</v>
+        <v>0.4473411764705879</v>
       </c>
       <c r="P911" s="3" t="n">
         <v>0.0055459033910035</v>
@@ -48531,7 +48531,7 @@
         <v>0.0046053665839843</v>
       </c>
       <c r="N923" s="10" t="n">
-        <v>0.4703870145386585</v>
+        <v>0.4703870145386586</v>
       </c>
       <c r="O923" s="11" t="n">
         <v>0.5296129854613307</v>
@@ -48794,7 +48794,7 @@
         <v>0.5257881142040661</v>
       </c>
       <c r="O928" s="11" t="n">
-        <v>0.4742118857959236</v>
+        <v>0.4742118857959237</v>
       </c>
       <c r="P928" s="3" t="n">
         <v>0.0013300536684044</v>
@@ -48846,7 +48846,7 @@
         <v>0.5786324465243385</v>
       </c>
       <c r="O929" s="11" t="n">
-        <v>0.4213675534756447</v>
+        <v>0.4213675534756448</v>
       </c>
       <c r="P929" s="3" t="n">
         <v>0.0123661232928085</v>
@@ -48898,7 +48898,7 @@
         <v>0.5062380886094526</v>
       </c>
       <c r="O930" s="11" t="n">
-        <v>0.4937619113905332</v>
+        <v>0.4937619113905333</v>
       </c>
       <c r="P930" s="3" t="n">
         <v>7.782749899894121e-05</v>
@@ -49103,7 +49103,7 @@
         <v>0.0078136272885214</v>
       </c>
       <c r="N934" s="10" t="n">
-        <v>0.4935202244044367</v>
+        <v>0.4935202244044368</v>
       </c>
       <c r="O934" s="11" t="n">
         <v>0.5064797755955538</v>
@@ -49210,7 +49210,7 @@
         <v>0.5036556061893993</v>
       </c>
       <c r="O936" s="11" t="n">
-        <v>0.4963443938105932</v>
+        <v>0.4963443938105933</v>
       </c>
       <c r="P936" s="3" t="n">
         <v>2.672691322400344e-05</v>
@@ -49262,7 +49262,7 @@
         <v>0.5468041693419786</v>
       </c>
       <c r="O937" s="11" t="n">
-        <v>0.4531958306580192</v>
+        <v>0.4531958306580193</v>
       </c>
       <c r="P937" s="3" t="n">
         <v>0.0043812605355854</v>
@@ -49987,7 +49987,7 @@
         <v>0.00390625</v>
       </c>
       <c r="N951" s="10" t="n">
-        <v>0.4893241224705882</v>
+        <v>0.4893241224705883</v>
       </c>
       <c r="O951" s="11" t="n">
         <v>0.5106758775294025</v>
@@ -50039,7 +50039,7 @@
         <v>0.05903244238281</v>
       </c>
       <c r="N952" s="10" t="n">
-        <v>0.4975207488256153</v>
+        <v>0.4975207488256154</v>
       </c>
       <c r="O952" s="11" t="n">
         <v>0.5024792511743504</v>
@@ -50302,7 +50302,7 @@
         <v>0.5875119832074576</v>
       </c>
       <c r="O957" s="11" t="n">
-        <v>0.4124880167925266</v>
+        <v>0.4124880167925267</v>
       </c>
       <c r="P957" s="3" t="n">
         <v>0.0153166944098074</v>
@@ -50406,7 +50406,7 @@
         <v>0.5960945749844708</v>
       </c>
       <c r="O959" s="11" t="n">
-        <v>0.4039054250155133</v>
+        <v>0.4039054250155134</v>
       </c>
       <c r="P959" s="3" t="n">
         <v>0.0184683346828952</v>
@@ -51134,7 +51134,7 @@
         <v>0.5750538073117655</v>
       </c>
       <c r="O973" s="11" t="n">
-        <v>0.4249461926882324</v>
+        <v>0.4249461926882325</v>
       </c>
       <c r="P973" s="3" t="n">
         <v>0.0112661479839835</v>
@@ -51235,7 +51235,7 @@
         <v>0.0006433929687499</v>
       </c>
       <c r="N975" s="10" t="n">
-        <v>0.479796611674414</v>
+        <v>0.4797966116744141</v>
       </c>
       <c r="O975" s="11" t="n">
         <v>0.5202033883255768</v>
@@ -51394,7 +51394,7 @@
         <v>0.5193415072010448</v>
       </c>
       <c r="O978" s="11" t="n">
-        <v>0.4806584927989313</v>
+        <v>0.4806584927989314</v>
       </c>
       <c r="P978" s="3" t="n">
         <v>0.000748187801617</v>
@@ -51914,7 +51914,7 @@
         <v>0.5311786532127417</v>
       </c>
       <c r="O988" s="11" t="n">
-        <v>0.468821346787254</v>
+        <v>0.4688213467872541</v>
       </c>
       <c r="P988" s="3" t="n">
         <v>0.001944216832321</v>
@@ -52018,7 +52018,7 @@
         <v>0.5088582654902701</v>
       </c>
       <c r="O990" s="11" t="n">
-        <v>0.4911417345097191</v>
+        <v>0.4911417345097192</v>
       </c>
       <c r="P990" s="3" t="n">
         <v>0.0001569377349924</v>
@@ -52278,7 +52278,7 @@
         <v>0.5140726462177354</v>
       </c>
       <c r="O995" s="11" t="n">
-        <v>0.4859273537822562</v>
+        <v>0.4859273537822563</v>
       </c>
       <c r="P995" s="3" t="n">
         <v>0.0003960787431393</v>
@@ -52330,7 +52330,7 @@
         <v>0.5861801899649186</v>
       </c>
       <c r="O996" s="11" t="n">
-        <v>0.4138198100350801</v>
+        <v>0.4138198100350802</v>
       </c>
       <c r="P996" s="3" t="n">
         <v>0.0148540502847791</v>
@@ -52746,7 +52746,7 @@
         <v>0.5015809940525693</v>
       </c>
       <c r="O1004" s="11" t="n">
-        <v>0.4984190059474211</v>
+        <v>0.4984190059474212</v>
       </c>
       <c r="P1004" s="3" t="n">
         <v>4.999084388549089e-06</v>
@@ -52798,7 +52798,7 @@
         <v>0.5098774861967607</v>
       </c>
       <c r="O1005" s="11" t="n">
-        <v>0.4901225138032228</v>
+        <v>0.4901225138032229</v>
       </c>
       <c r="P1005" s="3" t="n">
         <v>0.0001951294671347</v>
@@ -53058,7 +53058,7 @@
         <v>0.5306130793333206</v>
       </c>
       <c r="O1010" s="11" t="n">
-        <v>0.4693869206666666</v>
+        <v>0.4693869206666667</v>
       </c>
       <c r="P1010" s="3" t="n">
         <v>0.0018743212525371</v>
@@ -53474,7 +53474,7 @@
         <v>0.7268891446012314</v>
       </c>
       <c r="O1018" s="11" t="n">
-        <v>0.2731108553987664</v>
+        <v>0.2731108553987665</v>
       </c>
       <c r="P1018" s="3" t="n">
         <v>0.1029573678757579</v>
@@ -53526,7 +53526,7 @@
         <v>0.5101774494823643</v>
       </c>
       <c r="O1019" s="11" t="n">
-        <v>0.4898225505176254</v>
+        <v>0.4898225505176255</v>
       </c>
       <c r="P1019" s="3" t="n">
         <v>0.0002071609559323</v>
@@ -53838,7 +53838,7 @@
         <v>0.5185184573490578</v>
       </c>
       <c r="O1025" s="11" t="n">
-        <v>0.4814815426509283</v>
+        <v>0.4814815426509284</v>
       </c>
       <c r="P1025" s="3" t="n">
         <v>0.0006858665251782</v>
@@ -53991,7 +53991,7 @@
         <v>1.280000000000001e-05</v>
       </c>
       <c r="N1028" s="10" t="n">
-        <v>0.4337383240968704</v>
+        <v>0.4337383240968705</v>
       </c>
       <c r="O1028" s="11" t="n">
         <v>0.5662616759031281</v>
@@ -54046,7 +54046,7 @@
         <v>0.5233951898296573</v>
       </c>
       <c r="O1029" s="11" t="n">
-        <v>0.4766048101703278</v>
+        <v>0.4766048101703279</v>
       </c>
       <c r="P1029" s="3" t="n">
         <v>0.001094669814332</v>
@@ -54095,7 +54095,7 @@
         <v>6.103515625e-05</v>
       </c>
       <c r="N1030" s="10" t="n">
-        <v>0.4459176944249038</v>
+        <v>0.4459176944249039</v>
       </c>
       <c r="O1030" s="11" t="n">
         <v>0.5540823055750961</v>
@@ -54202,7 +54202,7 @@
         <v>0.5313195347824508</v>
       </c>
       <c r="O1032" s="11" t="n">
-        <v>0.4686804652175402</v>
+        <v>0.4686804652175403</v>
       </c>
       <c r="P1032" s="3" t="n">
         <v>0.0019618265179788</v>
@@ -54826,7 +54826,7 @@
         <v>0.5575328466068324</v>
       </c>
       <c r="O1044" s="11" t="n">
-        <v>0.4424671533931444</v>
+        <v>0.4424671533931445</v>
       </c>
       <c r="P1044" s="3" t="n">
         <v>0.0066200568773732</v>
@@ -54982,7 +54982,7 @@
         <v>0.53673682513973</v>
       </c>
       <c r="O1047" s="11" t="n">
-        <v>0.4632631748602653</v>
+        <v>0.4632631748602654</v>
       </c>
       <c r="P1047" s="3" t="n">
         <v>0.0026991886426945</v>
@@ -55086,7 +55086,7 @@
         <v>0.5115028821901038</v>
       </c>
       <c r="O1049" s="11" t="n">
-        <v>0.4884971178098783</v>
+        <v>0.4884971178098784</v>
       </c>
       <c r="P1049" s="3" t="n">
         <v>0.0002646325973592</v>
@@ -55242,7 +55242,7 @@
         <v>0.6157041770573566</v>
       </c>
       <c r="O1052" s="11" t="n">
-        <v>0.3842958229426433</v>
+        <v>0.3842958229426434</v>
       </c>
       <c r="P1052" s="3" t="n">
         <v>0.0267749131770402</v>
@@ -55759,7 +55759,7 @@
         <v>1.9683e-05</v>
       </c>
       <c r="N1062" s="10" t="n">
-        <v>0.4057207014259086</v>
+        <v>0.4057207014259087</v>
       </c>
       <c r="O1062" s="11" t="n">
         <v>0.5942792985740396</v>
@@ -55814,7 +55814,7 @@
         <v>0.5014632901227507</v>
       </c>
       <c r="O1063" s="11" t="n">
-        <v>0.4985367098772</v>
+        <v>0.4985367098771999</v>
       </c>
       <c r="P1063" s="3" t="n">
         <v>4.282435966823807e-06</v>
@@ -55863,7 +55863,7 @@
         <v>0.0002251875390624</v>
       </c>
       <c r="N1064" s="10" t="n">
-        <v>0.4795831266369524</v>
+        <v>0.4795831266369525</v>
       </c>
       <c r="O1064" s="11" t="n">
         <v>0.5204168733630277</v>
@@ -55970,7 +55970,7 @@
         <v>0.5610621790741952</v>
       </c>
       <c r="O1066" s="11" t="n">
-        <v>0.4389378209258048</v>
+        <v>0.4389378209258049</v>
       </c>
       <c r="P1066" s="3" t="n">
         <v>0.0074571794265781</v>
@@ -56197,13 +56197,13 @@
         </is>
       </c>
       <c r="D1071" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1071" s="5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F1071" s="6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G1071" s="7" t="n">
         <v>3</v>
@@ -56227,7 +56227,7 @@
         <v>0.0695928955078074</v>
       </c>
       <c r="N1071" s="10" t="n">
-        <v>0.5071504829179448</v>
+        <v>0.5071504829179447</v>
       </c>
       <c r="O1071" s="11" t="n">
         <v>0.4928495170820129</v>
@@ -56334,7 +56334,7 @@
         <v>0.5543121558296288</v>
       </c>
       <c r="O1073" s="11" t="n">
-        <v>0.445687844170367</v>
+        <v>0.4456878441703671</v>
       </c>
       <c r="P1073" s="3" t="n">
         <v>0.0058996205417242</v>
@@ -56386,7 +56386,7 @@
         <v>0.5796272160852518</v>
       </c>
       <c r="O1074" s="11" t="n">
-        <v>0.4203727839147398</v>
+        <v>0.4203727839147399</v>
       </c>
       <c r="P1074" s="3" t="n">
         <v>0.012680987082976</v>
@@ -56438,7 +56438,7 @@
         <v>0.5212200229801174</v>
       </c>
       <c r="O1075" s="11" t="n">
-        <v>0.478779977019882</v>
+        <v>0.4787799770198821</v>
       </c>
       <c r="P1075" s="3" t="n">
         <v>0.0009005787505534</v>
@@ -57007,7 +57007,7 @@
         <v>0.0230430120004949</v>
       </c>
       <c r="N1086" s="10" t="n">
-        <v>0.5338972611145224</v>
+        <v>0.5338972611145223</v>
       </c>
       <c r="O1086" s="11" t="n">
         <v>0.466102738885456</v>
@@ -57114,7 +57114,7 @@
         <v>0.5385361111406576</v>
       </c>
       <c r="O1088" s="11" t="n">
-        <v>0.4614638888593226</v>
+        <v>0.4614638888593227</v>
       </c>
       <c r="P1088" s="3" t="n">
         <v>0.0029700637236917</v>
@@ -57166,7 +57166,7 @@
         <v>0.6685215058823529</v>
       </c>
       <c r="O1089" s="11" t="n">
-        <v>0.331478494117647</v>
+        <v>0.3314784941176471</v>
       </c>
       <c r="P1089" s="3" t="n">
         <v>0.0567989958897118</v>
@@ -57319,7 +57319,7 @@
         <v>0.0487440473025163</v>
       </c>
       <c r="N1092" s="10" t="n">
-        <v>0.5163980629695191</v>
+        <v>0.516398062969519</v>
       </c>
       <c r="O1092" s="11" t="n">
         <v>0.483601937030425</v>
@@ -57530,7 +57530,7 @@
         <v>0.5386162134745636</v>
       </c>
       <c r="O1096" s="11" t="n">
-        <v>0.4613837865254246</v>
+        <v>0.4613837865254247</v>
       </c>
       <c r="P1096" s="3" t="n">
         <v>0.002982423886227</v>
@@ -57582,7 +57582,7 @@
         <v>0.7647692881210122</v>
       </c>
       <c r="O1097" s="11" t="n">
-        <v>0.2352307118789877</v>
+        <v>0.2352307118789878</v>
       </c>
       <c r="P1097" s="3" t="n">
         <v>0.1402055518642151</v>
@@ -57634,7 +57634,7 @@
         <v>0.5151340630791792</v>
       </c>
       <c r="O1098" s="11" t="n">
-        <v>0.4848659369207971</v>
+        <v>0.4848659369207972</v>
       </c>
       <c r="P1098" s="3" t="n">
         <v>0.0004580797305698</v>
@@ -57738,7 +57738,7 @@
         <v>0.5096388692000613</v>
       </c>
       <c r="O1100" s="11" t="n">
-        <v>0.4903611307999201</v>
+        <v>0.4903611307999202</v>
       </c>
       <c r="P1100" s="3" t="n">
         <v>0.0001858155989121</v>
@@ -57790,7 +57790,7 @@
         <v>0.5981002073594495</v>
       </c>
       <c r="O1101" s="11" t="n">
-        <v>0.4018997926405255</v>
+        <v>0.4018997926405256</v>
       </c>
       <c r="P1101" s="3" t="n">
         <v>0.0192473013679388</v>
@@ -57842,7 +57842,7 @@
         <v>0.5582540239860178</v>
       </c>
       <c r="O1102" s="11" t="n">
-        <v>0.4417459760139784</v>
+        <v>0.4417459760139785</v>
       </c>
       <c r="P1102" s="3" t="n">
         <v>0.0067870626211275</v>
@@ -57894,7 +57894,7 @@
         <v>0.6023950647101964</v>
       </c>
       <c r="O1103" s="11" t="n">
-        <v>0.3976049352897868</v>
+        <v>0.3976049352897869</v>
       </c>
       <c r="P1103" s="3" t="n">
         <v>0.020969498554014</v>
@@ -57998,7 +57998,7 @@
         <v>0.6818678033362796</v>
       </c>
       <c r="O1105" s="11" t="n">
-        <v>0.318132196663711</v>
+        <v>0.3181321966637111</v>
       </c>
       <c r="P1105" s="3" t="n">
         <v>0.0661517957807307</v>
@@ -58154,7 +58154,7 @@
         <v>0.5141730636464428</v>
       </c>
       <c r="O1108" s="11" t="n">
-        <v>0.4858269363535358</v>
+        <v>0.4858269363535359</v>
       </c>
       <c r="P1108" s="3" t="n">
         <v>0.0004017514662528</v>
@@ -58310,7 +58310,7 @@
         <v>0.5010613931359719</v>
       </c>
       <c r="O1111" s="11" t="n">
-        <v>0.4989386068640259</v>
+        <v>0.498938606864026</v>
       </c>
       <c r="P1111" s="3" t="n">
         <v>2.253110778180982e-06</v>
@@ -58362,7 +58362,7 @@
         <v>0.5509736026337428</v>
       </c>
       <c r="O1112" s="11" t="n">
-        <v>0.4490263973662496</v>
+        <v>0.4490263973662497</v>
       </c>
       <c r="P1112" s="3" t="n">
         <v>0.0051966163309261</v>
@@ -58518,7 +58518,7 @@
         <v>0.5197402508864684</v>
       </c>
       <c r="O1115" s="11" t="n">
-        <v>0.4802597491135248</v>
+        <v>0.4802597491135249</v>
       </c>
       <c r="P1115" s="3" t="n">
         <v>0.0007793550101216</v>
@@ -58674,7 +58674,7 @@
         <v>0.5578261658064915</v>
       </c>
       <c r="O1118" s="11" t="n">
-        <v>0.4421738341934911</v>
+        <v>0.4421738341934912</v>
       </c>
       <c r="P1118" s="3" t="n">
         <v>0.0066877309037616</v>
@@ -58986,7 +58986,7 @@
         <v>0.5354480799742886</v>
       </c>
       <c r="O1124" s="11" t="n">
-        <v>0.464551920025686</v>
+        <v>0.4645519200256861</v>
       </c>
       <c r="P1124" s="3" t="n">
         <v>0.0025131327477289</v>
@@ -59090,7 +59090,7 @@
         <v>0.5438060604455507</v>
       </c>
       <c r="O1126" s="11" t="n">
-        <v>0.4561939395544337</v>
+        <v>0.4561939395544338</v>
       </c>
       <c r="P1126" s="3" t="n">
         <v>0.0038379418635198</v>
@@ -59246,7 +59246,7 @@
         <v>0.6212222683529411</v>
       </c>
       <c r="O1129" s="11" t="n">
-        <v>0.3787777316470588</v>
+        <v>0.3787777316470589</v>
       </c>
       <c r="P1129" s="3" t="n">
         <v>0.0293896766892649</v>
@@ -59298,7 +59298,7 @@
         <v>0.5121625572478958</v>
       </c>
       <c r="O1130" s="11" t="n">
-        <v>0.4878374427520819</v>
+        <v>0.487837442752082</v>
       </c>
       <c r="P1130" s="3" t="n">
         <v>0.0002958555976172</v>
@@ -59350,7 +59350,7 @@
         <v>0.621757836092401</v>
       </c>
       <c r="O1131" s="11" t="n">
-        <v>0.3782421639075767</v>
+        <v>0.3782421639075768</v>
       </c>
       <c r="P1131" s="3" t="n">
         <v>0.0296499412998133</v>
@@ -59610,7 +59610,7 @@
         <v>0.5454032015843767</v>
       </c>
       <c r="O1136" s="11" t="n">
-        <v>0.454596798415613</v>
+        <v>0.4545967984156131</v>
       </c>
       <c r="P1136" s="3" t="n">
         <v>0.004122901428224</v>
@@ -60754,7 +60754,7 @@
         <v>0.5214712895940649</v>
       </c>
       <c r="O1158" s="11" t="n">
-        <v>0.478528710405904</v>
+        <v>0.4785287104059041</v>
       </c>
       <c r="P1158" s="3" t="n">
         <v>0.0009220325536657</v>
@@ -61430,7 +61430,7 @@
         <v>0.5608484948780652</v>
       </c>
       <c r="O1171" s="11" t="n">
-        <v>0.4391515051219303</v>
+        <v>0.4391515051219304</v>
       </c>
       <c r="P1171" s="3" t="n">
         <v>0.0074050786578523</v>
@@ -61534,7 +61534,7 @@
         <v>0.5676369432430948</v>
       </c>
       <c r="O1173" s="11" t="n">
-        <v>0.432363056756905</v>
+        <v>0.4323630567569051</v>
       </c>
       <c r="P1173" s="3" t="n">
         <v>0.009149512182539199</v>
@@ -61586,7 +61586,7 @@
         <v>0.5392727505480667</v>
       </c>
       <c r="O1174" s="11" t="n">
-        <v>0.4607272494519209</v>
+        <v>0.460727249451921</v>
       </c>
       <c r="P1174" s="3" t="n">
         <v>0.0030846978712223</v>
@@ -61794,7 +61794,7 @@
         <v>0.572495850886063</v>
       </c>
       <c r="O1178" s="11" t="n">
-        <v>0.4275041491139212</v>
+        <v>0.4275041491139213</v>
       </c>
       <c r="P1178" s="3" t="n">
         <v>0.0105112967913908</v>
@@ -62158,7 +62158,7 @@
         <v>0.5546787894371383</v>
       </c>
       <c r="O1185" s="11" t="n">
-        <v>0.445321210562849</v>
+        <v>0.4453212105628491</v>
       </c>
       <c r="P1185" s="3" t="n">
         <v>0.0059795400286231</v>
@@ -62210,7 +62210,7 @@
         <v>0.6567032417512839</v>
       </c>
       <c r="O1186" s="11" t="n">
-        <v>0.3432967582487033</v>
+        <v>0.3432967582487034</v>
       </c>
       <c r="P1186" s="3" t="n">
         <v>0.0491118119507266</v>
@@ -62314,7 +62314,7 @@
         <v>0.6707722228627451</v>
       </c>
       <c r="O1188" s="11" t="n">
-        <v>0.3292277771372456</v>
+        <v>0.3292277771372457</v>
       </c>
       <c r="P1188" s="3" t="n">
         <v>0.0583263042029693</v>
@@ -62418,7 +62418,7 @@
         <v>0.6712362989067095</v>
       </c>
       <c r="O1190" s="11" t="n">
-        <v>0.3287637010932673</v>
+        <v>0.3287637010932674</v>
       </c>
       <c r="P1190" s="3" t="n">
         <v>0.0586437401265438</v>
@@ -62470,7 +62470,7 @@
         <v>0.5704788190612464</v>
       </c>
       <c r="O1191" s="11" t="n">
-        <v>0.4295211809387473</v>
+        <v>0.4295211809387474</v>
       </c>
       <c r="P1191" s="3" t="n">
         <v>0.009934527872536699</v>
@@ -63718,7 +63718,7 @@
         <v>0.5603763701882822</v>
       </c>
       <c r="O1215" s="11" t="n">
-        <v>0.4396236298117157</v>
+        <v>0.4396236298117158</v>
       </c>
       <c r="P1215" s="3" t="n">
         <v>0.0072906121542252</v>
@@ -64238,7 +64238,7 @@
         <v>0.5544857271310336</v>
       </c>
       <c r="O1225" s="11" t="n">
-        <v>0.445514272868955</v>
+        <v>0.4455142728689551</v>
       </c>
       <c r="P1225" s="3" t="n">
         <v>0.0059373889219961</v>
@@ -64342,7 +64342,7 @@
         <v>0.519594826885569</v>
       </c>
       <c r="O1227" s="11" t="n">
-        <v>0.4804051731144241</v>
+        <v>0.4804051731144242</v>
       </c>
       <c r="P1227" s="3" t="n">
         <v>0.0007679144813511</v>
@@ -64599,7 +64599,7 @@
         <v>1.000000000000001e-10</v>
       </c>
       <c r="N1232" s="10" t="n">
-        <v>0.4431187591362805</v>
+        <v>0.4431187591362806</v>
       </c>
       <c r="O1232" s="11" t="n">
         <v>0.5568812408637045</v>
@@ -64654,7 +64654,7 @@
         <v>0.5655409991658349</v>
       </c>
       <c r="O1233" s="11" t="n">
-        <v>0.4344590008341489</v>
+        <v>0.434459000834149</v>
       </c>
       <c r="P1233" s="3" t="n">
         <v>0.008591245143314</v>
@@ -64810,7 +64810,7 @@
         <v>0.635804832362091</v>
       </c>
       <c r="O1236" s="11" t="n">
-        <v>0.3641951676379072</v>
+        <v>0.3641951676379073</v>
       </c>
       <c r="P1236" s="3" t="n">
         <v>0.0368859049857917</v>
@@ -64881,16 +64881,16 @@
         </is>
       </c>
       <c r="D1238" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1238" s="5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F1238" s="6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1238" s="7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1238" s="7" t="n">
         <v>1</v>
@@ -64899,25 +64899,25 @@
         <v>1</v>
       </c>
       <c r="J1238" s="8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K1238" s="9" t="n">
-        <v>0.6448654793441287</v>
+        <v>0.5340913291843228</v>
       </c>
       <c r="L1238" s="3" t="n">
-        <v>0.3550734854996085</v>
+        <v>0.4659077171413116</v>
       </c>
       <c r="M1238" s="3" t="n">
-        <v>6.103515625e-05</v>
+        <v>9.5367431640625e-07</v>
       </c>
       <c r="N1238" s="10" t="n">
-        <v>0.6449048412118785</v>
+        <v>0.5340918385339918</v>
       </c>
       <c r="O1238" s="11" t="n">
-        <v>0.3550951587881087</v>
+        <v>0.465908161465959</v>
       </c>
       <c r="P1238" s="3" t="n">
-        <v>0.0419948260132831</v>
+        <v>0.0023245069092588</v>
       </c>
     </row>
     <row r="1239">
@@ -65278,7 +65278,7 @@
         <v>0.5662583897048808</v>
       </c>
       <c r="O1245" s="11" t="n">
-        <v>0.4337416102951031</v>
+        <v>0.4337416102951032</v>
       </c>
       <c r="P1245" s="3" t="n">
         <v>0.0087803484125698</v>
@@ -65382,7 +65382,7 @@
         <v>0.5314332804839058</v>
       </c>
       <c r="O1247" s="11" t="n">
-        <v>0.4685667195160587</v>
+        <v>0.4685667195160588</v>
       </c>
       <c r="P1247" s="3" t="n">
         <v>0.001976102243962</v>
@@ -65486,7 +65486,7 @@
         <v>0.5226426355759043</v>
       </c>
       <c r="O1249" s="11" t="n">
-        <v>0.4773573644240604</v>
+        <v>0.4773573644240605</v>
       </c>
       <c r="P1249" s="3" t="n">
         <v>0.001025377891648</v>
@@ -65590,7 +65590,7 @@
         <v>0.578975376483461</v>
       </c>
       <c r="O1251" s="11" t="n">
-        <v>0.4210246235165323</v>
+        <v>0.4210246235165324</v>
       </c>
       <c r="P1251" s="3" t="n">
         <v>0.0124742201814098</v>
@@ -65694,7 +65694,7 @@
         <v>0.5336465355246677</v>
       </c>
       <c r="O1253" s="11" t="n">
-        <v>0.4663534644753241</v>
+        <v>0.4663534644753242</v>
       </c>
       <c r="P1253" s="3" t="n">
         <v>0.0022641787056259</v>
@@ -66058,7 +66058,7 @@
         <v>0.7796717805486284</v>
       </c>
       <c r="O1260" s="11" t="n">
-        <v>0.2203282194513702</v>
+        <v>0.2203282194513703</v>
       </c>
       <c r="P1260" s="3" t="n">
         <v>0.156432609670481</v>
@@ -66266,7 +66266,7 @@
         <v>0.6133212303728747</v>
       </c>
       <c r="O1264" s="11" t="n">
-        <v>0.386678769627112</v>
+        <v>0.3866787696271121</v>
       </c>
       <c r="P1264" s="3" t="n">
         <v>0.0256834025064472</v>
@@ -66315,7 +66315,7 @@
         <v>0.0325976327597777</v>
       </c>
       <c r="N1265" s="10" t="n">
-        <v>0.6100861618034884</v>
+        <v>0.6100861618034883</v>
       </c>
       <c r="O1265" s="11" t="n">
         <v>0.3899138381964905</v>
@@ -66474,7 +66474,7 @@
         <v>0.7996769882352942</v>
       </c>
       <c r="O1268" s="11" t="n">
-        <v>0.2003230117647044</v>
+        <v>0.2003230117647045</v>
       </c>
       <c r="P1268" s="3" t="n">
         <v>0.1796125945555541</v>
@@ -66682,7 +66682,7 @@
         <v>0.8547295553905799</v>
       </c>
       <c r="O1272" s="11" t="n">
-        <v>0.145270444609419</v>
+        <v>0.1452704446094191</v>
       </c>
       <c r="P1272" s="3" t="n">
         <v>0.2516661149351977</v>
@@ -66734,7 +66734,7 @@
         <v>0.547670147537903</v>
       </c>
       <c r="O1273" s="11" t="n">
-        <v>0.4523298524620804</v>
+        <v>0.4523298524620805</v>
       </c>
       <c r="P1273" s="3" t="n">
         <v>0.0045448859325724</v>
@@ -66912,40 +66912,40 @@
         <v>3</v>
       </c>
       <c r="E1277" s="5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1277" s="6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1277" s="7" t="n">
         <v>3</v>
       </c>
       <c r="H1277" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1277" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1277" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K1277" s="9" t="n">
-        <v>0.5038300035521012</v>
+        <v>0.4998302960643392</v>
       </c>
       <c r="L1277" s="3" t="n">
-        <v>0.4305500463635697</v>
+        <v>0.434631139058224</v>
       </c>
       <c r="M1277" s="3" t="n">
-        <v>0.06561995008429571</v>
+        <v>0.0655385648774051</v>
       </c>
       <c r="N1277" s="10" t="n">
-        <v>0.5392131430862147</v>
+        <v>0.534885953852943</v>
       </c>
       <c r="O1277" s="11" t="n">
-        <v>0.4607868569137494</v>
+        <v>0.465114046147023</v>
       </c>
       <c r="P1277" s="3" t="n">
-        <v>0.0030753411814027</v>
+        <v>0.0024340595524617</v>
       </c>
     </row>
     <row r="1278">
@@ -67098,7 +67098,7 @@
         <v>0.805915924612997</v>
       </c>
       <c r="O1280" s="11" t="n">
-        <v>0.1940840753869963</v>
+        <v>0.1940840753869964</v>
       </c>
       <c r="P1280" s="3" t="n">
         <v>0.1871691058636538</v>
@@ -67150,7 +67150,7 @@
         <v>0.5833320069862795</v>
       </c>
       <c r="O1281" s="11" t="n">
-        <v>0.4166679930137146</v>
+        <v>0.4166679930137147</v>
       </c>
       <c r="P1281" s="3" t="n">
         <v>0.0138884467767236</v>
@@ -67202,7 +67202,7 @@
         <v>0.8670856349757115</v>
       </c>
       <c r="O1282" s="11" t="n">
-        <v>0.132914365024287</v>
+        <v>0.1329143650242871</v>
       </c>
       <c r="P1282" s="3" t="n">
         <v>0.2695037268110436</v>
@@ -68138,7 +68138,7 @@
         <v>0.7098694696842122</v>
       </c>
       <c r="O1300" s="11" t="n">
-        <v>0.2901305303157693</v>
+        <v>0.2901305303157694</v>
       </c>
       <c r="P1300" s="3" t="n">
         <v>0.0880903886110726</v>
@@ -68707,10 +68707,10 @@
         <v>0.0746190189171435</v>
       </c>
       <c r="N1311" s="10" t="n">
-        <v>0.5294779378402927</v>
+        <v>0.5294779378402926</v>
       </c>
       <c r="O1311" s="11" t="n">
-        <v>0.4705220621596365</v>
+        <v>0.4705220621596364</v>
       </c>
       <c r="P1311" s="3" t="n">
         <v>0.0017378976386364</v>
@@ -68762,7 +68762,7 @@
         <v>0.8286751207298783</v>
       </c>
       <c r="O1312" s="11" t="n">
-        <v>0.1713248792701122</v>
+        <v>0.1713248792701123</v>
       </c>
       <c r="P1312" s="3" t="n">
         <v>0.2160546699736062</v>
@@ -68814,7 +68814,7 @@
         <v>0.5379186562826025</v>
       </c>
       <c r="O1313" s="11" t="n">
-        <v>0.4620813437173895</v>
+        <v>0.4620813437173896</v>
       </c>
       <c r="P1313" s="3" t="n">
         <v>0.0028756489885569</v>
@@ -69022,7 +69022,7 @@
         <v>0.5237372480947727</v>
       </c>
       <c r="O1317" s="11" t="n">
-        <v>0.4762627519052116</v>
+        <v>0.4762627519052117</v>
       </c>
       <c r="P1317" s="3" t="n">
         <v>0.0011269138942263</v>
@@ -69230,7 +69230,7 @@
         <v>0.6619611077087773</v>
       </c>
       <c r="O1321" s="11" t="n">
-        <v>0.3380388922912188</v>
+        <v>0.3380388922912189</v>
       </c>
       <c r="P1321" s="3" t="n">
         <v>0.0524628008205095</v>
@@ -69334,7 +69334,7 @@
         <v>0.5975818482354877</v>
       </c>
       <c r="O1323" s="11" t="n">
-        <v>0.4024181517644907</v>
+        <v>0.4024181517644908</v>
       </c>
       <c r="P1323" s="3" t="n">
         <v>0.0190444342101117</v>
@@ -69594,7 +69594,7 @@
         <v>0.7495781072577123</v>
       </c>
       <c r="O1328" s="11" t="n">
-        <v>0.2504218927422807</v>
+        <v>0.2504218927422808</v>
       </c>
       <c r="P1328" s="3" t="n">
         <v>0.1245784632446877</v>
@@ -70010,7 +70010,7 @@
         <v>0.7528822508578781</v>
       </c>
       <c r="O1336" s="11" t="n">
-        <v>0.2471177491420781</v>
+        <v>0.2471177491420782</v>
       </c>
       <c r="P1336" s="3" t="n">
         <v>0.1278988655979157</v>
@@ -70062,7 +70062,7 @@
         <v>0.5420060806109129</v>
       </c>
       <c r="O1337" s="11" t="n">
-        <v>0.4579939193890547</v>
+        <v>0.4579939193890548</v>
       </c>
       <c r="P1337" s="3" t="n">
         <v>0.0035290216165837</v>
@@ -70322,7 +70322,7 @@
         <v>0.8105004860588444</v>
       </c>
       <c r="O1342" s="11" t="n">
-        <v>0.1894995139411302</v>
+        <v>0.1894995139411303</v>
       </c>
       <c r="P1342" s="3" t="n">
         <v>0.1928211036855729</v>
@@ -70530,7 +70530,7 @@
         <v>0.8569527228843317</v>
       </c>
       <c r="O1346" s="11" t="n">
-        <v>0.1430472771156593</v>
+        <v>0.1430472771156594</v>
       </c>
       <c r="P1346" s="3" t="n">
         <v>0.2548304927490833</v>
@@ -70790,7 +70790,7 @@
         <v>0.6795560222221633</v>
       </c>
       <c r="O1351" s="11" t="n">
-        <v>0.3204439777778329</v>
+        <v>0.320443977777833</v>
       </c>
       <c r="P1351" s="3" t="n">
         <v>0.0644807302324933</v>
@@ -70842,7 +70842,7 @@
         <v>0.7420549123676085</v>
       </c>
       <c r="O1352" s="11" t="n">
-        <v>0.2579450876323886</v>
+        <v>0.2579450876323887</v>
       </c>
       <c r="P1352" s="3" t="n">
         <v>0.1171811612025826</v>
@@ -71102,7 +71102,7 @@
         <v>0.6325385366069247</v>
       </c>
       <c r="O1357" s="11" t="n">
-        <v>0.3674614633930751</v>
+        <v>0.3674614633930752</v>
       </c>
       <c r="P1357" s="3" t="n">
         <v>0.0351329273718102</v>
@@ -71414,7 +71414,7 @@
         <v>0.5621514390276835</v>
       </c>
       <c r="O1363" s="11" t="n">
-        <v>0.4378485609722973</v>
+        <v>0.4378485609722974</v>
       </c>
       <c r="P1363" s="3" t="n">
         <v>0.007725602746426</v>
@@ -71622,7 +71622,7 @@
         <v>0.5456795097421697</v>
       </c>
       <c r="O1367" s="11" t="n">
-        <v>0.4543204902577918</v>
+        <v>0.4543204902577919</v>
       </c>
       <c r="P1367" s="3" t="n">
         <v>0.0041732352205734</v>
@@ -71849,13 +71849,13 @@
         </is>
       </c>
       <c r="D1372" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1372" s="5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F1372" s="6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G1372" s="7" t="n">
         <v>3</v>
@@ -72090,7 +72090,7 @@
         <v>0.9152886914851766</v>
       </c>
       <c r="O1376" s="11" t="n">
-        <v>0.0847113085148222</v>
+        <v>0.08471130851482221</v>
       </c>
       <c r="P1376" s="3" t="n">
         <v>0.3449293945509413</v>
